--- a/api/data/payslip_template.xlsx
+++ b/api/data/payslip_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zume\working_dirs\project\fast-juku\fast-juku-backend\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12030124-7124-4DC7-8B66-A62E06EDE10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0323A96A-67C9-4375-9540-8B20D8B8F764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3451,11 +3451,11 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F44" sqref="F44"/>
       <selection pane="topRight" activeCell="F44" sqref="F44"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3478,13 +3478,13 @@
     <row r="1" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f>COUNTIF(D10:J40,"")</f>
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f>COUNTIF(D10:J40,"80")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>17</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="M2" s="47">
         <f>ROUNDDOWN(SUM(K41:N41)+M6,0)</f>
-        <v>0</v>
+        <v>7291</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="P4" s="47">
         <f>M2-P2</f>
-        <v>0</v>
+        <v>7291</v>
       </c>
       <c r="Q4" s="38" t="s">
         <v>21</v>
@@ -3702,37 +3702,45 @@
       </c>
       <c r="C10" s="48" t="str">
         <f t="shared" ref="C10:C40" si="0">IF(COUNTA(D10:J10)&gt;0,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+      <c r="E10" s="52">
+        <v>80</v>
+      </c>
+      <c r="F10" s="52">
+        <v>80</v>
+      </c>
+      <c r="G10" s="52">
+        <v>80</v>
+      </c>
+      <c r="H10" s="52">
+        <v>80</v>
+      </c>
       <c r="I10" s="52"/>
       <c r="J10" s="53"/>
       <c r="K10" s="23">
         <f t="shared" ref="K10:K40" si="1">SUM(D10:J10)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="L10" s="68">
         <f t="shared" ref="L10:L40" si="2">COUNTA(D10:J10)*30</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M10" s="84">
         <f t="shared" ref="M10:M40" si="3">IF(AND(COUNTA(H10)=1,COUNTA(D10:H10)&gt;=3),IF(COUNTA(D10:H10)=3,15,IF(COUNTA(D10:H10)=4,35,IF(COUNTA(D10:H10)=5,55,IF(COUNTA(D10:H10)=6,75,IF(COUNTA(D10:H10)=7,95,0))))),0)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N10" s="85">
         <f t="shared" ref="N10:N40" si="4">IF(M10=15,45,IF(M10=35,105,IF(M10=55,165,IF(M10=75,225,IF(M10=95,285,0)))))</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="71" t="str">
         <f>IF(SUM(D10:L10)&gt;0,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
@@ -5095,7 +5103,7 @@
       </c>
       <c r="C41" s="43">
         <f>COUNTIF(C10:C40,"○")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="49">
         <f t="shared" ref="D41:J41" si="6">SUM(D10:D40)</f>
@@ -5103,19 +5111,19 @@
       </c>
       <c r="E41" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F41" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G41" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H41" s="49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I41" s="49">
         <f t="shared" si="6"/>
@@ -5127,19 +5135,19 @@
       </c>
       <c r="K41" s="45">
         <f>ROUNDDOWN(SUM(K10:K40)/60*1000,0)</f>
-        <v>0</v>
+        <v>5333</v>
       </c>
       <c r="L41" s="46">
         <f>ROUNDDOWN(SUM(L10:L40)/60*909,0)</f>
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="M41" s="89">
         <f>SUM(M10:M40)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N41" s="89">
         <f>SUM(N10:N40)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O41" s="12"/>
       <c r="P41" s="24">
